--- a/biology/Zoologie/Estrildidae/Estrildidae.xlsx
+++ b/biology/Zoologie/Estrildidae/Estrildidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Estrildidae (ou estrildidés) sont une famille de passereaux granivore constituée de 41 genres et 141 espèces. Ils sont largement présents dans les zones tropicales d'Afrique, d'Asie et d'Océanie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Estrildidae sont en général de petits oiseaux granivores des tropiques de l'Ancien Monde et d'Australasie, dont la taille varie entre 9 et 15 cm. Ce sont des granivores grégaires et souvent coloniaux, avec un bec conique, court et fort. Cependant, il existe des espèces au corps longiligne et au bec fin rappelant certains passereaux insectivores.
 La plupart sont sensibles au froid et nécessitent des habitats chauds, généralement tropicaux, bien que quelques-uns se soient adaptés aux climats plus frais du sud de l'Australie et des hautes terres de Nouvelle-Guinée.
@@ -545,11 +559,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a introduite en 1850 par le naturaliste français Charles Lucien Bonaparte comme la sous-famille des "Estreldinae"[1],[2], inclut dans la famille des Ploceidae. Les classifications sur des hybridations d'ADN de Sibley l'incluent dans la vaste famille des Passeridae. D'après la liste des oiseaux du monde tenue par Frank Gill, Pamela Rasmussen et David Donsker pour le compte du  Congrès ornithologique international, c'est une famille à part entière, comprenant 140 espèces réparties en 41 genres[3].
-Des études phylogénétiques moléculaires ont montré que la famille des Estrildidae est le groupe frère de la famille des Viduidae. Les deux familles ont divergé il y a environ 15,5 millions d'années[4]. On estime que le dernier ancêtre commun le plus récent des Estrildidae a vécu il y a environ 10,9 millions d’années[5]. Une étude génétique des Estrildidae par Urban Olsson et Per Alström publiée en 2020 a identifié 6 clades majeurs. Les radiations au sein de ces clades se sont produites il y a entre 4,5 et 8,9 millions d’années. Les auteurs ont proposé que chacun de ces clades soit traité comme une sous-famille[5]. Cela contraste avec une proposition antérieure dans laquelle la famille était divisée en trois sous-familles[6].
-Liste des genres et espèces selon la classification de référence du Congrès ornithologique international (2023)[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a introduite en 1850 par le naturaliste français Charles Lucien Bonaparte comme la sous-famille des "Estreldinae" inclut dans la famille des Ploceidae. Les classifications sur des hybridations d'ADN de Sibley l'incluent dans la vaste famille des Passeridae. D'après la liste des oiseaux du monde tenue par Frank Gill, Pamela Rasmussen et David Donsker pour le compte du  Congrès ornithologique international, c'est une famille à part entière, comprenant 140 espèces réparties en 41 genres.
+Des études phylogénétiques moléculaires ont montré que la famille des Estrildidae est le groupe frère de la famille des Viduidae. Les deux familles ont divergé il y a environ 15,5 millions d'années. On estime que le dernier ancêtre commun le plus récent des Estrildidae a vécu il y a environ 10,9 millions d’années. Une étude génétique des Estrildidae par Urban Olsson et Per Alström publiée en 2020 a identifié 6 clades majeurs. Les radiations au sein de ces clades se sont produites il y a entre 4,5 et 8,9 millions d’années. Les auteurs ont proposé que chacun de ces clades soit traité comme une sous-famille. Cela contraste avec une proposition antérieure dans laquelle la famille était divisée en trois sous-familles.
+Liste des genres et espèces selon la classification de référence du Congrès ornithologique international (2023) : 
 Aidemosyne (1 espèce)
 Aidemosyne modesta – Diamant modeste
 Amadina (2 espèces)
